--- a/assets/examples/xlsx/RS0003/residential-fan.RS0003.xlsx
+++ b/assets/examples/xlsx/RS0003/residential-fan.RS0003.xlsx
@@ -464,6 +464,11 @@
     <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <t>Rotational speed of fan impeller</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -968,7 +973,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1006,7 +1011,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>d12dc5a9-f8bc-4190-9286-c4096ec8ea2f</t>
+          <t>78ac40d1-6c7c-4123-9654-15dfec865ada</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1025,7 +1030,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-11-23T11:45Z</t>
+          <t>2024-02-22T15:25Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1043,7 +1048,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1287,16 +1292,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C15" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C21" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C21" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"FIXED,VARIABLE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1468,7 +1473,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"COIL,FURNACE,FILTER,HEAT_EXCHANGER,ELECTRIC_RESISTANCE_ELEMENT,DIRECT_EVAPORATIVE,OTHER"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1692,7 +1697,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1730,7 +1735,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>48511b7d-9a5b-4dcc-b021-16ae6bf99d87</t>
+          <t>819caeda-28c6-4266-aaab-7a19e3802f1a</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1749,7 +1754,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-11-23T11:45Z</t>
+          <t>2024-02-22T15:25Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1767,7 +1772,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1882,7 +1887,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2031,6 +2036,7 @@
       </c>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2058,6 +2064,11 @@
           <t>impeller_rotational_speed</t>
         </is>
       </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2083,6 +2094,11 @@
       <c r="E4" s="4" t="inlineStr">
         <is>
           <t>rev/s</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2102,6 +2118,11 @@
       <c r="E5" s="5" t="n">
         <v>9.901132629301726</v>
       </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2119,6 +2140,11 @@
       <c r="E6" s="5" t="n">
         <v>11.16966357509329</v>
       </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2136,6 +2162,11 @@
       <c r="E7" s="5" t="n">
         <v>12.43819452088485</v>
       </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -2153,6 +2184,11 @@
       <c r="E8" s="5" t="n">
         <v>13.70672546667641</v>
       </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -2170,6 +2206,11 @@
       <c r="E9" s="5" t="n">
         <v>14.97525641246798</v>
       </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -2187,6 +2228,11 @@
       <c r="E10" s="5" t="n">
         <v>16.24378735825954</v>
       </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -2204,6 +2250,11 @@
       <c r="E11" s="5" t="n">
         <v>9.901132629301726</v>
       </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -2221,6 +2272,11 @@
       <c r="E12" s="5" t="n">
         <v>11.16966357509329</v>
       </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -2238,6 +2294,11 @@
       <c r="E13" s="5" t="n">
         <v>12.43819452088485</v>
       </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -2255,6 +2316,11 @@
       <c r="E14" s="5" t="n">
         <v>13.70672546667641</v>
       </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -2272,6 +2338,11 @@
       <c r="E15" s="5" t="n">
         <v>14.97525641246798</v>
       </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -2289,6 +2360,11 @@
       <c r="E16" s="5" t="n">
         <v>16.24378735825954</v>
       </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -2306,6 +2382,11 @@
       <c r="E17" s="5" t="n">
         <v>10.54161228391567</v>
       </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -2323,6 +2404,11 @@
       <c r="E18" s="5" t="n">
         <v>11.89220134289958</v>
       </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -2340,6 +2426,11 @@
       <c r="E19" s="5" t="n">
         <v>13.24279040188349</v>
       </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -2357,6 +2448,11 @@
       <c r="E20" s="5" t="n">
         <v>14.5933794608674</v>
       </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -2374,6 +2470,11 @@
       <c r="E21" s="5" t="n">
         <v>15.94396851985132</v>
       </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -2391,6 +2492,11 @@
       <c r="E22" s="5" t="n">
         <v>17.29455757883522</v>
       </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -2408,6 +2514,11 @@
       <c r="E23" s="5" t="n">
         <v>10.54161228391567</v>
       </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -2425,6 +2536,11 @@
       <c r="E24" s="5" t="n">
         <v>11.89220134289958</v>
       </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -2442,6 +2558,11 @@
       <c r="E25" s="5" t="n">
         <v>13.24279040188349</v>
       </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -2459,6 +2580,11 @@
       <c r="E26" s="5" t="n">
         <v>14.5933794608674</v>
       </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -2476,6 +2602,11 @@
       <c r="E27" s="5" t="n">
         <v>15.94396851985132</v>
       </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -2493,6 +2624,11 @@
       <c r="E28" s="5" t="n">
         <v>17.29455757883522</v>
       </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -2510,6 +2646,11 @@
       <c r="E29" s="5" t="n">
         <v>14.25377083333333</v>
       </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -2527,6 +2668,11 @@
       <c r="E30" s="5" t="n">
         <v>16.07996083333334</v>
       </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -2544,6 +2690,11 @@
       <c r="E31" s="5" t="n">
         <v>17.90615083333333</v>
       </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -2561,6 +2712,11 @@
       <c r="E32" s="5" t="n">
         <v>19.73234083333333</v>
       </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -2578,6 +2734,11 @@
       <c r="E33" s="5" t="n">
         <v>21.55853083333333</v>
       </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -2595,6 +2756,11 @@
       <c r="E34" s="5" t="n">
         <v>23.38472083333334</v>
       </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -2612,6 +2778,11 @@
       <c r="E35" s="5" t="n">
         <v>14.25377083333333</v>
       </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -2629,6 +2800,11 @@
       <c r="E36" s="5" t="n">
         <v>16.07996083333334</v>
       </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -2646,6 +2822,11 @@
       <c r="E37" s="5" t="n">
         <v>17.90615083333333</v>
       </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -2663,6 +2844,11 @@
       <c r="E38" s="5" t="n">
         <v>19.73234083333333</v>
       </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -2680,6 +2866,11 @@
       <c r="E39" s="5" t="n">
         <v>21.55853083333333</v>
       </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -2697,6 +2888,11 @@
       <c r="E40" s="5" t="n">
         <v>23.38472083333334</v>
       </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -2714,6 +2910,11 @@
       <c r="E41" s="5" t="n">
         <v>14.47083333333333</v>
       </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -2731,6 +2932,11 @@
       <c r="E42" s="5" t="n">
         <v>16.32483333333334</v>
       </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -2748,6 +2954,11 @@
       <c r="E43" s="5" t="n">
         <v>18.17883333333333</v>
       </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -2765,6 +2976,11 @@
       <c r="E44" s="5" t="n">
         <v>20.03283333333333</v>
       </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -2782,6 +2998,11 @@
       <c r="E45" s="5" t="n">
         <v>21.88683333333333</v>
       </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -2799,6 +3020,11 @@
       <c r="E46" s="5" t="n">
         <v>23.74083333333333</v>
       </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -2816,6 +3042,11 @@
       <c r="E47" s="5" t="n">
         <v>14.47083333333333</v>
       </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -2833,6 +3064,11 @@
       <c r="E48" s="5" t="n">
         <v>16.32483333333334</v>
       </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -2850,6 +3086,11 @@
       <c r="E49" s="5" t="n">
         <v>18.17883333333333</v>
       </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -2867,6 +3108,11 @@
       <c r="E50" s="5" t="n">
         <v>20.03283333333333</v>
       </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -2884,6 +3130,11 @@
       <c r="E51" s="5" t="n">
         <v>21.88683333333333</v>
       </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -2900,6 +3151,11 @@
       </c>
       <c r="E52" s="5" t="n">
         <v>23.74083333333333</v>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
